--- a/500all/speech_level/speeches_CHRG-114hhrg21381.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21381.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and I want to thank our panel of witnesses for being with us. I am going to introduce you right before you give your opening statements, so I will just introduce you individually at that time. I would like to recognize myself for 5 minutes for an opening statement.    Today's hearing is entitled ``Home Appliance Energy Efficiency Standards.'' Since 1987, we have had energy efficiency standards for certain appliances. It came about because back in 1975, there was a Federal Energy Policy Act that established that format. The Reagan administration was sued because it was not being implemented, and as a result that lawsuit, we now found ourselves in about the fifth or sixth gyration of these energy efficiency standards, which apply to almost anything that plugs into the wall in your home, whether it is an air conditioner, refrigerator, washer, dryer, furnace, oven, dishwasher, water heater, lighting, whatever it might be. And the argument was initially that you would save energy bills over time. Because of the efficiency, you would use less electricity, and the small amount of additional cost, you would end up saving money.    Now, some people today are questioning that because we are, as I said, we are about the fifth, sixth, or seventh round of these efficiency standards, and some people say that you reach a point of diminishing returns, and some people say that the additional costs now is at such a rate that you really don't have any savings over the long term because the energy efficiencies are simply not that great.    Now, other people say that is not the case. And of course, additionally, now, everybody is talking about global warming, and so there is additional emphasis being placed on this because of that.    One of the problems that we have is, in America, we feel like we are doing more than any other country in the world on these types of issues. I was reading an article the other day that said there are 3 billion people in the world who use open flames to cook today, and in the developing world, by 2040, they expect that 65 percent of energy consumption will come from the developing world.    We also hear a lot today about people being concerned about the cost of living. And we know that in California and New York, they are trying to raise the minimum wage, and many people are urging that we raise the minimum wage. Some people agree with that and some people don't, but it is interesting that those strong advocates for raising the minimum wage, they don't want to consider the additional cost caused by regulations. And it is one thing to say, OK, we need to raise the minimum wage, but to a low-income, middle-class family, if these appliances are going to cost additional money, what does that mean to their pocketbook?    And then, we are even hearing now from some of the appliance makers that some of these new appliances really don't work as well as the old ones, and so it is a situation where I think no one really expected that the Department of Energy and this administration would be as aggressive as they have been on so many different fronts.    Now, the good news was that in 1975, when they were considering these efficiency standards, they were supposed to consider that the technology was really feasible and that there was an economic justification for it. But today, that is beginning to be blurred, and we know certainly at EPA, when they consider--they certainly don't consider whether it is technologically feasible or economically justified.    So if we wanted to have a more balanced approach, what we are trying to do is hear from people who are involved in this on a daily basis because the American public, when they go to the appliance store to buy an appliance, they don't understand all about this efficiency, they just know what the price is, and then some people are telling them, well, you going to save money even though it is a lot more because the electricity will go down, and other people make the other argument.    So one of our objectives today is to just try to get a better understanding of what is the reality of this, and that is why we are here. So I want to thank all of you for joining us, and at this time, I would like to introduce the distinguished gentleman from Illinois, Mr. Rush, for his opening statement.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman, and welcome. It is important to hear from stakeholders because the stories that we weave here may not always really reflect the real world, and we are hoping that you will give us what is going on on the ground. And so I am going to weave a little story to put this all in perspective, too.    Congressman Bost and I met with a small manufacturer about 2 months ago, and their--subject to a DOE enforcement case, and, of course, because of the enforcement case, they even told to stop selling a piece of equipment. This company spent several months trying to find out why a third--they and a third party lab that tested the product, why they met the standard and why when DOE got their hands on it, they didn't meet the standard.    So DOE tested that the product, 7 months later, and not only--and I will weave the story why DOE came to a different conclusion, but it is also under a new regulation than when the product was originally produced. So here is this fraud in, catch-22 world in which you all have to try to live in to try to catch up, after a product has been manufactured, to a new regulation, and then face the heavy hand of the Federal Government.    So the company was not aware of section 2.11 because it was not included in the proposed rulemaking. It was two lines in a large rule previously represented as not materially altering efficiency measures. This piece of equipment did not pass the automatic test, but it did pass the manual test. So this is a piece of equipment that you can operate manually, or you can hook up a thermostat and operate automatically. It did meet the standards for the manual test. It didn't meet the test for the automatic.    DOE would never tell them why they failed the test until months later, even when they asked for transparency, show us your work, tell us what you are doing.    So this is a crazy world in which we live in. The Federal Government is there to help, not punish. The Federal Government is there to, if they want to have efficiency and they want to encourage movement forward, they should be incenting. They should not--so this small company, it is a small company, has a proposed $241,000 penalty, because DOE is now saying that they knowingly, knowingly kind of jimmied the efficiency standards where the equipment met the manual standard, didn't meet the automatic standard.    Of course, when you fall into this regime, you can't sell your product. It is banned from being sold until this conflict gets resolved. Small companies just can't survive this type of work. It would be best, as we hear, I am sure, similar stories about the struggles of maintaining it, businesses' goal is to help to raise capital, assume risk, hoping to get a return, and while they are doing that, they create jobs.    If the Government--we just want the Government to be fair players in this system. If we are going to create these new standards, give industry a chance to meet them, and don't play games of delay by not working with the industry and then telling them why they failed to meet the standard, or changing the rules for automatic or manual-type systems. So I am really looking forward to the hearing. I think it is very, very important, and I have got questions, when we come to it, on--to address the jobs debate, which I think people find pretty problematic that these are now causing the loss of jobs in our country, and I yield back my time.</t>
   </si>
   <si>
@@ -76,63 +70,42 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. The Appliance and Equipment Efficiency Standards Program at the Department of Energy has been incredibly successful over the years in reducing energy consumption and lowering consumers' energy bills. The program has also been beneficial to manufacturers, making energy saving products more ubiquitous and leaving the playing field--leveling, I should say, the playing field nationally.    In fact, efficiency standards for consumer appliances and other products likely constitute the single most effective Federal effort to reduce energy consumption in the United States. According to the Energy Department, Americans save $63 billion on their utility bills last year because of these standards, and this has also resulted in avoiding 2.6 billion tons of carbon dioxide emissions, which would equal the annual level of emissions from roughly 543 million vehicles.    These figures are staggering and highlight the dual benefits of this important program. Consumers save money, and our environment is spared billions of tons of pollution every year. And all of this began with enactment of the Energy Policy and Conservation Act, EPCA, which was signed into law by Republican President Gerald Ford. I highlight ``Republican.'' This apparently started a trend because with the exception of an amendment to the statute directing DOE to establish efficiency standards for consumer products under the Carter administration, every major expansion of the appliance efficiency standards program has been signed into law by a Republican president.    So while some of our witnesses and my colleagues on the other side of the aisle may lament the long list of appliance standards proposed by the Obama administration, they should remember that, depending on your point of view, much of the credit or blame for the Obama standards can be traced back to two laws signed by President George W. Bush, the Energy Policy Act of 2005, and the Energy Independence and Security Act of 2007.    And while the 2007 Act was passed by a Democratic Congress, the Energy Policy Act of 2005 was borne out of a fully Republican Congress and authored by the former Republican chairman of this committee. I don't know why I have to keep saying ``fully Republican Congress.'' That is obviously not what I like, but the fact of the matter is that, that most of this legislation was done by Republican Congress and Presidents, and this underscores an important fact: For the past 40 years, energy efficiency has been a bipartisan issue where Republicans and Democrats have come together to reduce energy consumption and save consumers money.    Times have changed, obviously. Certainly, there are a few Republicans who still understand the importance of energy efficiency. Mr. McKinley has worked with Mr. Welch to demonstrate that bipartisanship in this area is still alive to some degree. Yet regrettably, that seems to be the only Republican support for major efficiency legislation in this Congress. Consider the recent House vote to go to conference on an energy package that would actually increase consumption by rolling back efficiency. Again, how times have changed.    Could the efficiency-standard-setting process use improvement? Of course it could, because there is always room for improvement, despite a revisionist view that disputes over efficiency standards are a new development, the fact is that the standard-setting process has always yielded some controversy from one industry participant or another. But these controversies were generally worked out, and the results were better products, more efficiency, and often useful changes to the standard setting process.    My concern is that improvement simply may not be possible in this current Congress. Last year, when we were working to forge a bipartisan compromise on furnace standards, the less and forthright positions taken by certain stakeholders made me question the sincerity of the so-called reform efforts. Perhaps it is just a matter of perspective. What some stakeholders view as minor tweaks, look an awful lot to me like a thorough gutting of the standards program.    So ultimately, I believe a serious, successful energy policy for our Nation must address demand, not just supply. Improving the use of the resources we have to get more from less is common sense, and that is why efficiency has traditionally been a concept that brought parties together. And Mr. Chairman, I just hope that one day we will see that again. It doesn't seem like today is the day. So thank you. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back, and that concludes the opening statements on our side.    So at this time, our first witness will be Ms. Sofie Miller, who is the senior policy analyst at the George Washington University Regulatory Studies Center. So, Ms. Miller, thanks for being with us, and you will be given 5 minutes, and just make sure the microphone is on and it is up close to you so we can hear every single word that you say. And you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Miller. Well, thank you very much, Chairman Whitfield and Ranking Member Rush and members of the subcommittee for inviting me to share my expertise today. I appreciate the subcommittee's interest in the Department of Energy's energy conservation program as well as opportunities for Congress to improve it.    I am the senior policy analyst at the George Washington University Regulatory Studies Center, where I analyze the effects of regulation on public welfare, including the effects of DOE's energy efficiency standards on consumers specifically.    Through my research, I have identified ways in which these standards can harm consumers rather than benefiting them by limiting the products available and removing from the market appliances that might best suit their needs.    DOE's energy efficiency standards regulate appliances used in most households such as dishwashers, air conditioners, and refrigerators, and as a result, they affect almost all U.S. consumers. These standards increase the prices of common appliances in exchange for reducing consumers' energy and water bills in the future.    While DOE does estimate that consumers receive large net benefits from this tradeoff, it does not take into account the diversity of Americans, or that U.S. households have very different needs and preferences when it comes to household appliances. As a result, one-size-fits-all energy efficiency standards can deprive consumers of the ability to make purchases that best suit their circumstances and constraints, and in such cases, these regulations are a cost to consumers rather than a benefit.    For example, efficient dishwashers or clothes dryers save consumers more money in the long term the more frequently they are used and tends not to benefit households with lower frequency of use, which includes couples or single residents, such as the elderly. In proposing energy efficiency standards for clothes washers, DOE calculated large benefits by estimating that a household operates its clothes washer 392 times per year or more than once a day on average.    And while this might be realistic for large families or households with small children, it does not represent every household. In fact, even after accounting for their lower energy bills, the standards ended up costing the nearly 70 percent of American households that use clothes washers less frequently than six times per week. And to illustrate from personal experience, a very efficient dishwasher made sense for my mother, who has nine children and used to run the dishwasher as much as four times per day, if you can imagine that. But my current household of two, we run the dishwasher twice a week, and in our case, it is not likely that a more efficient and more expensive appliance is going to be worth the investment.    In addition, efficiency standards are particularly costly for low-income households. Wealthier Americans can afford to wait years or even decades to recoup the higher cost of an efficient appliance while poor Americans with less certain streams of income have higher opportunity costs. DOE calculates high benefits by using a relatively low time value of money, which field studies find represents wealthier households.    Changing DOE's model to reflect the actual time value of money to low- and median-income households shows that they encourage large net costs as a result of efficiency standards. When a paycheck has to cover rent, food, and other necessities, a very efficient appliance may not be affordable even if it does reduce electric bills in the future. Many families simply cannot borrow at the 3 percent rates that DOE assumes.    But energy cost savings are not the only justification for these standards, as we have heard, as more efficient appliances can also reduce environmental emissions, but these environmental benefits are typically quite small relative to the cost of the standards. In fact, the costs outweigh these benefits by a factor of three to one. By looking at environmental benefits alone, DOE would not be able to justify the standards that it has set for most appliances.    In sum, the payoff from more efficient appliances will vary depending on a household's income, size, and other characteristics such as geographic location. It is perfectly rational for individual households to prefer to purchase different appliances, including those that do not meet DOE's standards. By taking away those choices and preventing households from buying the appliance that best suits their individual needs, DOE is imposing a cost on consumers and not a benefit. This is particularly true for low- and median-income Americans and the elderly who bear the highest costs of appliance efficiency standards.    Thank you all for your time. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Ms. Miller, very much for your opening statement. And our next witness this morning is Mr. Joseph McGuire, who is the president and CEO of the Association of Home Appliance Manufacturers. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>McGuire</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGuire. Mr. Chairman and Ranking Member Rush, and members of the subcommittee, thank you for the opportunity to testify this morning. AHAM's membership includes more than 150 companies throughout the world, and employs tens of thousands of people in the United States. Our members produce more than 95 percent of the household appliances shipped for sale in this country. I don't think there is any disagreement at this table that the appliance standards and Energy Star programs have been successful.    Energy efficiency gains across core major appliance categories are dramatic and undeniable. For example, the most commonly purchased modern refrigerator uses the same amount of electricity as a 50-watt light bulb. A new clothes washer uses 73 percent less energy than it did in 1990 and half the water.    I also want to make very clear that our industry has been a strong supporter of these programs and has been involved in numerous rulemakings and legislative solutions to strengthen and improve the programs. In 1987, I personally led the 200-plus organizations that initiated and supported the National Appliance Energy Conservation Act. We strongly support a system of Federal standards and State preemption, and we do not propose a rollback of any standards.    But while these programs are both successful, they are both in need of modernization to recognize the success achieved and to establish a framework for policies and programs focused on meaningful additional efficiency gains. Yes, there should still be Federal standards that guarantee energy savings nationwide, by absent technological breakthroughs, a process geared towards continually ratcheting up efficiency standards, particularly for products that have already been subject to multiple revisions, does not make sense for the environment, the consumer, or the economy. But this will not happen under the current standards construct.    Reform legislation is needed. H.R. 8 is a practical step along that path offering modest, sensible changes to EPCA that will essentially require DOE to follow the regulatory procedures it had agreed to with the very organizations that advocated for EPCA reform in 1987, but more is needed. Today, AHAM is calling on Congress to take further steps to modernize our national energy efficiency law by ending mandatory serial rulemaking and permitting amended standards only when justified by quantifiable metrics, including a list of covered products for which no further rulemaking is needed, absent technological game changers; requiring DOE to meaningfully consider cumulative regulatory burden on product manufacturers; mandating procedures regarding transparency and public engagement, no more black box analyses; applying the Administrative Procedure Act to the Energy Star program.    There have been more than 30 standards and amendments that apply to the AHAM products under the program, and there have also been numerous test procedure revisions accompanying these standards. The reality is, though, that for many product categories, the relentless march of sequential rulemakings is not justified. That is because opportunities for additional energy savings beyond those already achieved are severely diminished as products are nearing maximum efficiency under technology. Further standards are likely to increase cost to consumers and manufacturers beyond an acceptable level, and for some products, reduced energy use will likely result in degraded performance and functionality.    We saw this in the flawed proposed dishwasher rule last year whose consumer payback period exceeded the product's life and resulted in products that could not clean dishes. DOE, to its credit, retracted the proposal, but it shouldn't take a national uproar for this to happen. The rule never should have been proposed.    As for Energy Star, the program has drifted from its original mission of energy efficiency into other areas beyond its expertise and authority. This drift must be considered in concert with the reality that the success of the program has essentially made it mandatory in the marketplace.    Congress needs to bring this program under the much more traditional procedures and specific criteria of the Administrative Procedures Act, which applies to virtually every other program EPA administers. It is also important that Congress make clear that Energy Star is about energy efficiency only, not about EPA's ideas regarding quality, functionality, sustainability, other nonenergy factors.    Our ultimate objective is to improve the U.S. regulatory environment in measurable ways that foster fair, more predictable, more open, and more efficient regulatory landscape. As an industry, we will continue to live up to our responsibility to provide consumers with life-enhancing products that deliver superior performance and energy environmental benefits. Our industry is very competitive, which drives not only innovation, but also reduce product costs through hundreds of millions of dollars in productivity improvements. That is why home appliance prices don't keep up with the CPI, not because of appliance standards.    Productivity investments hide the fact that changing product design and materials to meet energy standards adds costs. Implying that the huge efforts in time and capital investments to achieve productivity somehow make energy efficiency free is a great misunderstanding.    Mr. Chairman and members of the subcommittee, in summary, we call on Congress to modernize EPCA so that it addresses current circumstances by recognizing the diminishing energy savings opportunities for many products, evaluating cumulative regulatory burden and the actual impact of past rules in improving transparency in stakeholder engagement. Thank you for the opportunity to testify. I will be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. McGuire. And our next witness is Ms. Elizabeth Noll, who is the legislative director for Energy and Transportation at the Natural Resources Defense Council. Ms. Noll, thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Noll</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Noll. Good morning. Mr. Chairman, members of the subcommittee, thank you for the opportunity to share the perspective of the Natural Resources Defense Council on national energy efficiency standards set by the Department of Energy for many household appliances and commercial products. This program sets dependable, minimum levels of energy efficiency that all Americans can count on to reduce their utility bills, the carbon pollution that harms human health while promoting innovation and new job opportunities. My name is Elizabeth Noll, and I am the legislative director for the Energy and Transportation Program at NRDC.    NRDC has long supported energy efficiency standards, and we are far from alone. We have successfully worked alongside many groups, including NEMA, AHRI, and AHAM here today, and was reiterated in a recent op ed we authored with the National Association of Manufacturers. And let's not forget, the initial law establishing standards was signed by President Ronald Reagan, then expanded and improved with broad bipartisan support in law signed by both Presidents George H.W. And W. Bush. And why is there such strong support for efficiency standards?    This program is wildly successful, delivering tremendous consumer and national benefits. It has broad and bipartisan support founded on a long history of collaboration and consensus building, and by all accounts, there is still huge potential for even more energy and financial savings now and in the future.    To my first point, by every single measure, the program provides huge benefits. In fact, national appliance standards are the second biggest energy saving policy in U.S. history, second only to vehicle fuel economy standards. Appliance standards are saving the typical U.S. household about $500 per year on their utility bills. Last year alone, American consumers saved $63 billion. And thanks to standards already on the books today, consumers and benefits will save almost $2 trillion on their energy bill due to improved appliance and equipment sold through 2035.    Because these standards are cutting American energy consumption, it also reduces the need to burn polluting fossil fuels to run those appliances and equipment. Last year alone, national appliance standards helped the U.S. avoid emissions of 300 million tons of carbon dioxide. That is equivalent to the annual pollution from about 63 million cars.    As I noted earlier, three Republican presidents have signed laws supporting energy efficiency standards, and for the first time since the early 1990s, the Department of Energy is up to date with its legal deadlines that Congress enacted. In the spirit of consensus building and collaboration, the agency has done more than ever to open up avenues to increase stakeholder participation and collaboration. Of the 42 standards finalized since 2009, almost a quarter stemmed from consensus agreements negotiated with industry support.    And those that aren't negotiated, go through a normal rulemaking process, which includes multiple opportunities for input from industry. As a result, the vast majority of American energy efficiency standards go into effect without controversy.    As noted in other testimony today, manufacturers much prefer a single national standard over a State-by-State patchwork of requirements. Consumer groups, State Governments, business groups, utilities, all have engaged constructively and support the program. One might ask, Are there more energy consumer and environmental savings to be achieved? Emphatically, yes. One example involves the biggest energy and pollution saver from a single standard in the agency's history which was completed in January for commercial rooftop air conditioners, heat pumps, and warm air furnaces, and it represents the third revision to this standard. This standard is expected to save 15 quadrillion BTUs of energy over a 30-year period, which is nearly equivalent to the amount of energy in all of the coal burned to generate electricity in the United States in 1 year.    A forthcoming report by the Appliance Standards Awareness Project and the American Council for an Energy-Efficient Economy finds that the savings potential for Federal standards that will be eligible for update within the next 8 years exceeds what has been accomplished over the last 8, and innovation by our leading manufacturers is likely to open up new opportunities for savings that we cannot even contemplate today.    Without standards, cost-effective energy efficiency opportunities will be lost leading to unnecessarily high energy bills, increased energy consumption, more harmful pollution, and uncertainty from manufacturers. There is no doubt that this program works and will continue to deliver huge consumer and environmental value now and into the future. Thank you for the opportunity to share my views, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Ms. Noll, for your statement.    At this time, I would like to introduce Mr. Kevin Cosgriff, who is the president and CEO of the National Electrical Manufacturers Association, and thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Cosgriff</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cosgriff. Thank you, Mr. Chairman, Ranking Member Rush, and members of the subcommittee for having us today. I am the president and CEO of the National Electrical Manufacturers Association, some nearly 400 members that provide virtually everything in the electrical world, and I appreciate this opportunity to talk about EPCA with the subcommittee.    We have a central position in this dialogue given that 20 of the 63 covered products are made by NEMA members, and an additional 30 covered products contain components made by NEMA members.    I have three main points that I would like to make today. First, as has been stated, there are diminishing energy savings returns to multiple rulemakings on the same product. That is not saying that we don't believe in energy savings. We are just saying there is diminishing returns on multiple rulemakings that ought to be considered.    Future energy efficiency opportunities should include looking at energy use systems, not simply components or individual products. And lastly, serial regulation does, over time, limit consumer choice.    First, on diminishing returns. EPCA was written 40 years ago, and many of the covered products have since achieved then unimagined levels of efficiency. Several products have been through two or more different rulemakings, and the EPCA statute requires the DOE to determine whether higher standards are warranted on every single covered product at least every 6 years. This applies even to products that have already reached the stage of regulatory maturity, as it were, that is to say, the products for which cost-effective efficiency improvements have essentially reached their limits. Cost-effective energy improvements have reached their limits.    There are two components to this situation we believe warrant congressional attention. We should retire several and mature covered products, and by that, I mean retire at the current level of efficiency, not backslide, and that stakeholders, including Government, should be given sufficient time to analyze the impact of a previous regulation before a new rulemaking cycle kicks off. Rarely has a product entered the market before the next rule process kicks off. There has not been enough time to really analyze the information in the real world to see if it works.    My second point is that energy efficiency opportunities should begin to looking at energy use systems. EPCA was crafted for individual products. The challenge ahead, I think, is to build on this past industry success with a new, more holistic approach to these savings opportunities. Individual products are increasingly interconnected and operate as a system, rather than singularly. We suggest Congress consider this opportunity when discussing energy savings.    Think energy savings from a building versus energy savings from a lamp. Demands from--my third point is serial regulation impacts consumer choice. Demands from global competition, Government regulation, and all important consumer preference requires manufacturers to sprint to remain competitive. While our members are accustomed and good at running this race, and endless regulatory environment erects hurdles that they must repeatedly clear each and every time to remain viable. They are the definition of having skin in the game.    One tendency of EPCA, however, is that over time, it will trend towards eliminating certain products from the market. Under this type of regulatory scheme, there will be fewer and fewer choices offered to consumers. We assert that markets should drive and, in fact, are driving the energy-efficient economy. One choice that markets can do without, however, is availability of products entering the United States that do not comply with U.S. law and policy. This deprives consumers of energy-efficient benefits, and disadvantages law abiding manufacturers. This is an area where the Federal Government especially could be helpful with policing up these imports.    In conclusion, electrical manufacturers' contribution to the energy efficiency economy has been diligent, and I believe commendable. Throughout this effort, NEMA has made constructive proposals to Congress, to DOE, and working with other stakeholders to advance energy efficiency where we believe it was justified and where the savings were significant. We have resisted regulation for the sake of simply doing something more when the benefits are insignificant, Or the costs were just too high. The 40-year-old model of regulating energy use in single products has, in many cases, done its duty, but its diminishing returns are exacting an increasing cost for our industry and higher price for our consumers.    The legislative overhaul that builds on the success of the last 40 years, but allows us to all keep the energy efficiency economy moving forward is what we wish to support. We urge Congress to seize this unique opportunity. Thank you. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Cosgriff.    At this time, our next witness is Mr. Thomas Eckman, who is the director of the Power Division of the Northwest Power and Conservation Council. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Eckman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Eckman. Thank you, Mr. Chairman and Ranking Member Rush. My name is Tom Eckman. I am the Director of Power Planning for the Northwest Power and Conservation Council. I will start with a very quick thumbnail of who we are. Since there are no northwest delegates here, I thought you might--it might be important to figure out why I am here representing the northwest.    The Northwest Power and Conservation Council was established under a congressional authorization under the Northwest Power and Conservation Act of 1980, public law 96-501. We are an interstate compact authorized by you folks here in Congress to do power planning for the northwest. So we, for the States of Oregon, Washington, Idaho, and western Montana, we produce a 20-year power forecast of future needs and a resource plan to meet those needs for electricity, and our statutory requirement is that we are to treat energy efficiency as one of the resources we can rely on to meet those needs.    Over the past three decades, 3 \\1/2\\, 35 years, we produced seven different power plans. We are to update those plans every 5 years, so we started back in 1982 with the first plan, and called for cost-effective energy efficiency to be a major component of that planning process as directed by Congress.    Over that past 35 years, energy efficiency has been a very significant contributor to the northwest economy and to meeting our needs. In summary, since 1980, the northwest region has saved enough electricity through codes and standards, utility programs, to be equivalent of roughly six Seattles in annual electricity consumption, or more than one and one quarter times the actual consumption of the State of Oregon, so it is a significant contributor. It roughly represents our second largest resource in the region. It has met 55 percent of low growth since 1980, so we really believe in energy efficiency that is cost effective.    The reason I am here is to talk to you about the role that Federal standards have played in making that happen and what they look like going forward. Over the past 35 years, Federal standards have basically produced one-fifth of the total savings that we have been able to achieve. Energy code is about 20 percent, and the remaining through rate pair-funded utility programs. One-fifth of the savings turns out to be worth about $1 billion in annual savings out of the--on an annual basis, and saves about 5 million metric tons of carbon off of our system. And we have a very clean system because about half of our power comes from hydroelectricity. So that is a significant component of us. It is about 10 percent of our total carbon emissions on an annual basis.    So on a going-forward basis, we looked at the Federal standards that have been adopted between 2009 and 2014. Those standards alone will reduce our forecast low growth from 1.1 percent to .8 percent, about 30 percent reduction in low growth. Again, saving significant consumer cost for new generation and saving consumer pain and agony from carbon emissions. So we are here to support those standards because not only have they been a huge benefit to us, but we have been involved in the negotiations that led to not only the Federal standards, but many of the standards that have been adopted since 20--since 1987.    I am a member of the Appliance Standards Rulemaking Advisory Committee that was appointed by DOE to facilitate better communication between manufacturers and advocates for energy efficiency to begin to develop more transparent and open processes to engage in rulemaking. And that--since the advent of that committee, which was basically formed at the behest of the Department itself because it understood that it could do a better job of rulemaking in the negotiations, and it could, in a standard notice and comment process, it can't always do a better job, but in some instances, particularly Elizabeth noted the appliance rulemaking for air conditioners and package rooftop systems, those consensus agreements between manufacturers and advocates have produced better standards, more regulatory certainty on behalf of the manufacturers, and greater compromise and facility to implement standards on behalf of the manufacturers.    So I think those--that particular improvement was not envisioned in the original statute, but as a regulatory process that DOE implemented on a voluntary basis and has improved immeasurably the transparency of the standards development process on a going-forward basis, and I think that we can talk more about that in the time that you have questions for me. I will stop there. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thanks, Mr. Eckman.    And our next witness, and last witness, is Mr. Stephen Yurek, who is the president and CEO in the Air-Conditioning, Heating and Refrigeration Institute. So thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Yurek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yurek. Thank you, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee for inviting me to testify on this important topic. I am Steve Yurek, and I am the president and CEO of the Air-Conditioning, Heating and Refrigeration Institute. AHRI has 315 member companies that manufacture more than 90 percent of the residential, commercial, and industry air conditioning, space heating, water heating, and commercial refrigeration equipment sold and installed in North America.    Our members employ over 100,000 people in manufacturing, and more than 1 million American jobs when you include those involved in distribution, installation, and maintenance of our equipment. I want to make it clear that our industry has a long record of leadership when it comes to innovation, energy efficiency, and environmental stewardship. In fact, the equipment our members produce is 50 percent more efficient than it was just 20 years ago. But even as we innovate and develop the next generation of highly efficient equipment, we always have in mind the needs of our customers who are, after all, the people who buy and use our equipment.    We have three main concerns with the current statutes that I would like to discuss today. First, the authority Congress set forth for setting efficiency standards, the Energy Policy Conservation Act, is 40 years old and has not been undated to reflect new technologies and economic realities.    Two, in addition to the impact in our industries, consumers are paying a heavy price, both in real monetary costs and in comfort and safety. When new equipment costs more than consumers can afford, they find alternatives, some of which compromise their comfort and safety while saving less energy, and in some cases, actually using more energy.    Finally, American jobs are being lost, in part, because of the promulgation of ever more stringent deficiency regulations, and the worse thing is, DOE admits that these regulations cost jobs.    While the Clinton administration issued six major efficiency rules during his 8 years in office, the current administration issued eight major efficiency rules in 2014 alone. There are real consequences from this rush to regulate. Yes, complying with these rules cost my member companies millions and millions of dollars, but what is far more important, it should be far more worry to Congress, is that American jobs are being lost, and consumers, who are already feeling financially squeezed, are being forced to pay more for products they rely on in their everyday lives from comfort cooling and heating, to refrigeration, to hot water.    EPCA requires that all efficiency standards meet the twin tests of technically feasible and economically justified, and yet, DOE has issued rules that use unrealistic assumptions in its analyses to justify higher efficiency levels. I will give you a couple of examples.    For commercial boilers, DOE estimates the new standard would save just eight-tenths of a percent more energy than the existing standard, but would cost manufacturers up to $24 million to comply. For residential boilers and commercial refrigeration equipment, DOE justified the economic impact of the higher efficiency levels by using the assumption that no matter how much the product increases in price, demand for that product would never decrease.    Every time DOE issues a new rule, it issues a press release estimating the rule's benefit in cost savings for consumers and energy savings for the Nation based on theoretical models. DOE has never looked back to see what the energy savings actually were, or if consumers actually ever benefited from spending more money, and the current law does not even require such a review.    Finally, DOE projects future job losses in several of its rulemakings for our products. For example, in two separate rulemakings for different types of commercial air-conditioning units, DOE noted small business manufacturers would need to redesign their entire private offering or leave the market. DOE acknowledged a potential scenario in which a rulemaking for commercial refrigeration equipment could cause all existing production to be moved outside of the United States, resulting in a loss of over 3,500 jobs.    Changes to EPCA should be implemented in phases with the collaboration of all stakeholders. I urge all members of the upcoming conference committee to ensure that the technical corrections in H.R. 8 remain part of the final energy bill. Broader EPCA reform should stress flexibility, enhance technical and economic justifications, and the process should be overhauled to maximize transparency and stakeholder engagement. Congress should require DOE to convene stakeholders to discuss and recommend a new regulatory framework.    AHRI is ready to work with Congress, DOE, and other stakeholders on ways we can, together, fix and update this 40-year-old law to create a new, more open process, conserve energy, help manufacturers remain competitive in the global marketplace, and benefit all consumers. I appreciate the chance to appear today, and I look forward to answering any questions you might have and to working with you as we move forward on this important issue.</t>
   </si>
   <si>
@@ -295,9 +268,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson [presiding]. The gentleman's time has expired. The Chair recognizes the ranking member of the full committee, Mr. Pallone from New Jersey for 5 minutes.</t>
   </si>
   <si>
@@ -367,9 +337,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. I thank the assistant chair. Mr. Cosgriff, I believe that you stated that many of the imported products are not held to the same standards as American made products. Is that right?</t>
   </si>
   <si>
@@ -439,9 +406,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thanks, Mr. Chairman. And I would also like to echo I think this is a great panel today and really appreciate you all being here. I am kind of an expert, my wife and I in the last 6 weeks just bought a washer and dryer, and the refrigerator is next.    But in northwest Ohio we do make HVAC, we make dishwashers, we make dryers, we make washing machines, we also make waffle irons, we make large mixers and we also have a large freezer plant right in northwest central Ohio. So we have a lot of things going on, and it is very important to our economy.    But, Mr. McGuire, if I could start with you: You have been particularly critical of the proposed standards for dishwashers. Can you explain what is wrong with the standard in terms of substance of the proposed rule as well as the process by which it has come about?</t>
   </si>
   <si>
@@ -487,9 +451,6 @@
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. Thank you very much. This is a great panel, I appreciate it.    A couple of things, we don't have a bill yet, right? So this is kind of an abstract discussion. And I thought Mr. Shimkus kind of laid out the potential for cooperation here. I do like the notion of collaboration in the process, because you have got folks at DOE who are doing their best to implement efficiency standards, you have got real world folks that are the manufacturers that have to contend with the very practical issues of implementation.    Ms. Noll, you're OK with that, right?</t>
   </si>
   <si>
@@ -529,9 +490,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. And let me just build a little bit on some of the remarks that have been made earlier about credentials. Peter Welch and I have had a wonderful working relationship, we both chair the efficiency caucus, we put language into the current energy bill that we are waiting to see what is happen in the Senate. We have been to the White House for the energy efficiency bills. So this is something I think he and I grasp fairly well with this.    Back when I was in private practice in engineering we designed some of the first LEED certified schools and office buildings in West Virginia. I am working with Tonko over in energy efficiency with the turbines to create electricity to make that more efficient. So energy efficiency is one of the prime areas that I like to play with and can get involved in here.    But I get to a point, there are some vast differences and I want to play back on what my colleague and good friend Bobby Rush from Illinois was talking about, was the disparity of income when people were facing this, if you look at this, it poses a challenge for all of us. It really does for it.    If you look at Mississippi my colleague from Harper from Mississippi, their median family income $36,000 a year. In Mississippi. $36,000 a year, but in Maryland, it is over $70,000 per family income. So in those affluent States or neighborhoods, they make choices, they have choices. You will probably if we went through the motor vehicle licensing we would find they probably have more BMWs and Lexus cars there then we have in some other areas of the country or in neighborhoods.    So cars are going to be different because people have choices. We have housing, different pricing for housing because people have choices for that. We have health care. When you go to the exchanges under ObamaCare there are different exchanges so people have choices. But when it comes to their major consumer appliance, they don't.    For your air conditioning, your refrigerator, your range, your dishwasher, your furnace all of these now have been mandated that this is the only one that they have available to them. I am troubled with that, because of the diversity of income, their capability of doing it, and don't tell me it is going to save my $500 a year, because we understand the pay back is so much longer on all of these.    So I am wondering is there a suggestion you all could make that might make it more palatable for people to be able to have a choice so that they are not confronted with this hard decision? I know of families that are trying to fix anything, their equipment--to make it last as long as possible, because they know that they can't afford the cost of the new one. And so they are spending a lot of money in repairs because they don't have a choice. They know what the cost is. That air conditioning costs the same in Connecticut as it does in Mississippi, or that dishwasher.    So what would you suggest that we in Congress could do to maybe ameliorate some of these differences a little bit so that the poorer communities or States that have trouble, how can they afford to have this cost? Can some of you--OK, Mr. Yurek.</t>
   </si>
   <si>
@@ -547,9 +505,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chairman. Thank you to our witnesses.    Certainly we are citing a 40-year history here. And again to repeat what my colleague from Vermont indicated, we have to look at some of the trade situations too. Where offshoring of jobs might have helped some families retain those jobs and be able to afford these items. And this job loss thing I think is much more complex than just suggesting standards caused it.    Our energy efficiency standards have improved products that benefit all of our constituents. Many of these are not luxury goods but necessities found in nearly every home. We have heard support for national efficiency standards from manufacturers and consumers and we have heard from industries from States from environmental groups that there is consensus that this program has been a success.    I am certainly open to improving the program, but improvements cannot undermine the purpose of this program. And while we look for those improvements, we should not lose sight of the fact that this program is incredibly successful. While there have been a few contentious rules, it is my understanding that of the final rules issued since 2009, almost one-quarter were the result of negotiating consensus agreements and only five have been subject to litigation.    So to our witnesses, do you agree many of these rules have been consensus driven?</t>
   </si>
   <si>
@@ -586,9 +541,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman.    And Mr. McGuire could you recommend to me what type of hair dryer would be the best purchase for my dishwasher so I could dry my dishes whenever the cycle is through?</t>
   </si>
   <si>
@@ -631,9 +583,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman and thank the panel for being here today, a very informative discussion.    Mr. McGuire, which of your appliances have been regulated multiple times? I mean, do you believe we are reaching a point of diminishing marginal returns with this serial rulemaking?</t>
   </si>
   <si>
@@ -667,9 +616,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and I, too, want to thank the panel for joining us today. Thank you all. I know this is--you have been here awhile already.    For Mr. McGuire, Mr. Cosgriff, and Mr. Yurek, how important is early stakeholder input in the rulemaking process? I mean, what are the additional challenges that you face when DOE issues a notice of proposed rulemaking without having consulted with you beforehand?    Mr. McGuire, let's start with you.</t>
   </si>
   <si>
@@ -713,9 +659,6 @@
   </si>
   <si>
     <t>412568</t>
-  </si>
-  <si>
-    <t>Markwayne Mullin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, sir, and thank you for having this meeting. You know, I will be honest with you, there is a few meetings that we have in here that I have to really study hard on because I am not familiar with it. This is, as I would say, in my wheelhouse.    I understand this situation extremely well. And Ms. Noll, I am going to kind of just talk to you for probably the remainder of the time Because of a couple of things that you said, and I just kind of want to set the record straight. One, you said huge savings of these energy efficiency standards that DOE has put out, has put huge savings. That was your words, right? Based on what?</t>
@@ -1183,11 +1126,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1209,11 +1150,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1233,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1261,11 +1198,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1285,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1313,11 +1246,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1339,11 +1270,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1365,11 +1294,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1391,11 +1318,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1417,11 +1342,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1443,11 +1366,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1469,11 +1390,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1495,11 +1414,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1521,11 +1438,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1547,11 +1462,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1573,11 +1486,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1599,11 +1510,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1625,11 +1534,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1651,11 +1558,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1677,11 +1582,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1703,11 +1606,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1729,11 +1630,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1755,11 +1654,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1781,11 +1678,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1807,11 +1702,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1833,11 +1726,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1859,11 +1750,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1885,11 +1774,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1911,11 +1798,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1937,11 +1822,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1963,11 +1846,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1989,11 +1870,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2015,11 +1894,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2041,11 +1918,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2067,11 +1942,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2093,11 +1966,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2119,11 +1990,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2145,11 +2014,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2171,11 +2038,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2197,11 +2062,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2223,11 +2086,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2249,11 +2110,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2275,11 +2134,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2301,11 +2158,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2327,11 +2182,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2353,11 +2206,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2379,11 +2230,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2405,11 +2254,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2431,11 +2278,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>29</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2457,11 +2302,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2483,11 +2326,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2507,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2535,11 +2374,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2561,11 +2398,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2587,11 +2422,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2611,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2639,11 +2470,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2663,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2691,11 +2518,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2715,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2743,11 +2566,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2767,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2795,11 +2614,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2819,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2847,11 +2662,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2871,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2899,11 +2710,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2923,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2951,11 +2758,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2975,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3003,11 +2806,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3027,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3053,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3079,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3107,11 +2902,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3131,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3159,11 +2950,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3183,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3211,11 +2998,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3235,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3263,11 +3046,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3287,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3315,11 +3094,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3339,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3367,11 +3142,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3391,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3417,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3445,11 +3214,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>38</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3469,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3497,11 +3262,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3521,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3549,11 +3310,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3573,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
-      </c>
-      <c r="G94" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3601,11 +3358,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>38</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3625,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>92</v>
-      </c>
-      <c r="G96" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3651,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3679,11 +3430,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3703,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3731,11 +3478,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3755,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3783,11 +3526,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3807,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
-      </c>
-      <c r="G103" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3835,11 +3574,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3859,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3887,11 +3622,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3911,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
         <v>117</v>
-      </c>
-      <c r="H107" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3939,11 +3670,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3963,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3991,11 +3718,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>35</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4015,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4043,11 +3766,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4067,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4095,11 +3814,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4119,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
-      </c>
-      <c r="G115" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4147,11 +3862,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4171,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
-      </c>
-      <c r="G117" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4197,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>92</v>
-      </c>
-      <c r="G118" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4223,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>140</v>
-      </c>
-      <c r="G119" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4251,11 +3958,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>26</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4275,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
-      </c>
-      <c r="G121" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4303,11 +4006,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4327,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
-      </c>
-      <c r="G123" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4355,11 +4054,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>26</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4379,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
-      </c>
-      <c r="G125" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4407,11 +4102,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>26</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4431,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
-      </c>
-      <c r="G127" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4459,11 +4150,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4483,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
+        <v>129</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
         <v>140</v>
-      </c>
-      <c r="G129" t="s">
-        <v>141</v>
-      </c>
-      <c r="H129" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4511,11 +4198,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>38</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4535,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4561,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>92</v>
-      </c>
-      <c r="G132" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4587,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>156</v>
-      </c>
-      <c r="G133" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4615,11 +4294,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4639,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
-      </c>
-      <c r="G135" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4667,11 +4342,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4691,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G137" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4719,11 +4390,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4743,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>156</v>
-      </c>
-      <c r="G139" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4771,11 +4438,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4795,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
-      </c>
-      <c r="G141" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4823,11 +4486,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4847,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
-      </c>
-      <c r="G143" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4873,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>92</v>
-      </c>
-      <c r="G144" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4899,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>170</v>
-      </c>
-      <c r="G145" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4927,11 +4582,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>38</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4951,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4977,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>92</v>
-      </c>
-      <c r="G148" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5003,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
-      </c>
-      <c r="G149" t="s">
-        <v>177</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5031,11 +4678,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>38</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5055,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
-      </c>
-      <c r="G151" t="s">
-        <v>177</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5083,11 +4726,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>35</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5107,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5135,11 +4774,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5159,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
-      </c>
-      <c r="G155" t="s">
-        <v>177</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5187,11 +4822,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5211,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
-      </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5239,11 +4870,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5263,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>92</v>
-      </c>
-      <c r="G159" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5289,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>189</v>
-      </c>
-      <c r="G160" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5317,11 +4942,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>26</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5341,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>189</v>
-      </c>
-      <c r="G162" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5369,11 +4990,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5393,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>189</v>
-      </c>
-      <c r="G164" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5421,11 +5038,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5445,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>189</v>
-      </c>
-      <c r="G166" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5473,11 +5086,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5497,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
-      </c>
-      <c r="G168" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5523,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
-      </c>
-      <c r="G169" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5551,11 +5158,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5575,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
-      </c>
-      <c r="G171" t="s">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5601,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>92</v>
-      </c>
-      <c r="G172" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5627,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>204</v>
-      </c>
-      <c r="G173" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5655,11 +5254,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5679,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>204</v>
-      </c>
-      <c r="G175" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5707,11 +5302,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>26</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5731,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>204</v>
-      </c>
-      <c r="G177" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5759,11 +5350,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5783,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>204</v>
-      </c>
-      <c r="G179" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5811,11 +5398,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>38</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5835,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>204</v>
-      </c>
-      <c r="G181" t="s">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5861,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>92</v>
-      </c>
-      <c r="G182" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5887,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>216</v>
-      </c>
-      <c r="G183" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5915,11 +5494,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>26</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5939,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>216</v>
-      </c>
-      <c r="G185" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5967,11 +5542,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>32</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5991,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>216</v>
-      </c>
-      <c r="G187" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6019,11 +5590,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>38</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6043,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>216</v>
-      </c>
-      <c r="G189" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6071,11 +5638,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>38</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6095,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>216</v>
-      </c>
-      <c r="G191" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6123,11 +5686,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>38</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6147,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>216</v>
-      </c>
-      <c r="G193" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6175,11 +5734,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>38</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6199,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
-      </c>
-      <c r="G195" t="s">
-        <v>217</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6225,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>92</v>
-      </c>
-      <c r="G196" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6251,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>232</v>
-      </c>
-      <c r="G197" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6279,11 +5830,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>29</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6303,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>232</v>
-      </c>
-      <c r="G199" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6331,11 +5878,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>29</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6355,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>232</v>
-      </c>
-      <c r="G201" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6383,11 +5926,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>29</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6407,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>232</v>
-      </c>
-      <c r="G203" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6435,11 +5974,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>29</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6459,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>232</v>
-      </c>
-      <c r="G205" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6487,11 +6022,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>29</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6511,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>232</v>
-      </c>
-      <c r="G207" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6539,11 +6070,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>29</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6563,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>232</v>
-      </c>
-      <c r="G209" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6591,11 +6118,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>29</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6615,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>232</v>
-      </c>
-      <c r="G211" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6643,11 +6166,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>23</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6667,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>232</v>
-      </c>
-      <c r="G213" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6695,11 +6214,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>23</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6719,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>232</v>
-      </c>
-      <c r="G215" t="s">
+        <v>214</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
         <v>233</v>
-      </c>
-      <c r="H215" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6745,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>232</v>
-      </c>
-      <c r="G216" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6771,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>92</v>
-      </c>
-      <c r="G217" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6797,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>232</v>
-      </c>
-      <c r="G218" t="s">
-        <v>233</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6823,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>92</v>
-      </c>
-      <c r="G219" t="s">
-        <v>93</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21381.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21381.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning, and I want to thank our panel of witnesses for being with us. I am going to introduce you right before you give your opening statements, so I will just introduce you individually at that time. I would like to recognize myself for 5 minutes for an opening statement.    Today's hearing is entitled ``Home Appliance Energy Efficiency Standards.'' Since 1987, we have had energy efficiency standards for certain appliances. It came about because back in 1975, there was a Federal Energy Policy Act that established that format. The Reagan administration was sued because it was not being implemented, and as a result that lawsuit, we now found ourselves in about the fifth or sixth gyration of these energy efficiency standards, which apply to almost anything that plugs into the wall in your home, whether it is an air conditioner, refrigerator, washer, dryer, furnace, oven, dishwasher, water heater, lighting, whatever it might be. And the argument was initially that you would save energy bills over time. Because of the efficiency, you would use less electricity, and the small amount of additional cost, you would end up saving money.    Now, some people today are questioning that because we are, as I said, we are about the fifth, sixth, or seventh round of these efficiency standards, and some people say that you reach a point of diminishing returns, and some people say that the additional costs now is at such a rate that you really don't have any savings over the long term because the energy efficiencies are simply not that great.    Now, other people say that is not the case. And of course, additionally, now, everybody is talking about global warming, and so there is additional emphasis being placed on this because of that.    One of the problems that we have is, in America, we feel like we are doing more than any other country in the world on these types of issues. I was reading an article the other day that said there are 3 billion people in the world who use open flames to cook today, and in the developing world, by 2040, they expect that 65 percent of energy consumption will come from the developing world.    We also hear a lot today about people being concerned about the cost of living. And we know that in California and New York, they are trying to raise the minimum wage, and many people are urging that we raise the minimum wage. Some people agree with that and some people don't, but it is interesting that those strong advocates for raising the minimum wage, they don't want to consider the additional cost caused by regulations. And it is one thing to say, OK, we need to raise the minimum wage, but to a low-income, middle-class family, if these appliances are going to cost additional money, what does that mean to their pocketbook?    And then, we are even hearing now from some of the appliance makers that some of these new appliances really don't work as well as the old ones, and so it is a situation where I think no one really expected that the Department of Energy and this administration would be as aggressive as they have been on so many different fronts.    Now, the good news was that in 1975, when they were considering these efficiency standards, they were supposed to consider that the technology was really feasible and that there was an economic justification for it. But today, that is beginning to be blurred, and we know certainly at EPA, when they consider--they certainly don't consider whether it is technologically feasible or economically justified.    So if we wanted to have a more balanced approach, what we are trying to do is hear from people who are involved in this on a daily basis because the American public, when they go to the appliance store to buy an appliance, they don't understand all about this efficiency, they just know what the price is, and then some people are telling them, well, you going to save money even though it is a lot more because the electricity will go down, and other people make the other argument.    So one of our objectives today is to just try to get a better understanding of what is the reality of this, and that is why we are here. So I want to thank all of you for joining us, and at this time, I would like to introduce the distinguished gentleman from Illinois, Mr. Rush, for his opening statement.</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman, and welcome. It is important to hear from stakeholders because the stories that we weave here may not always really reflect the real world, and we are hoping that you will give us what is going on on the ground. And so I am going to weave a little story to put this all in perspective, too.    Congressman Bost and I met with a small manufacturer about 2 months ago, and their--subject to a DOE enforcement case, and, of course, because of the enforcement case, they even told to stop selling a piece of equipment. This company spent several months trying to find out why a third--they and a third party lab that tested the product, why they met the standard and why when DOE got their hands on it, they didn't meet the standard.    So DOE tested that the product, 7 months later, and not only--and I will weave the story why DOE came to a different conclusion, but it is also under a new regulation than when the product was originally produced. So here is this fraud in, catch-22 world in which you all have to try to live in to try to catch up, after a product has been manufactured, to a new regulation, and then face the heavy hand of the Federal Government.    So the company was not aware of section 2.11 because it was not included in the proposed rulemaking. It was two lines in a large rule previously represented as not materially altering efficiency measures. This piece of equipment did not pass the automatic test, but it did pass the manual test. So this is a piece of equipment that you can operate manually, or you can hook up a thermostat and operate automatically. It did meet the standards for the manual test. It didn't meet the test for the automatic.    DOE would never tell them why they failed the test until months later, even when they asked for transparency, show us your work, tell us what you are doing.    So this is a crazy world in which we live in. The Federal Government is there to help, not punish. The Federal Government is there to, if they want to have efficiency and they want to encourage movement forward, they should be incenting. They should not--so this small company, it is a small company, has a proposed $241,000 penalty, because DOE is now saying that they knowingly, knowingly kind of jimmied the efficiency standards where the equipment met the manual standard, didn't meet the automatic standard.    Of course, when you fall into this regime, you can't sell your product. It is banned from being sold until this conflict gets resolved. Small companies just can't survive this type of work. It would be best, as we hear, I am sure, similar stories about the struggles of maintaining it, businesses' goal is to help to raise capital, assume risk, hoping to get a return, and while they are doing that, they create jobs.    If the Government--we just want the Government to be fair players in this system. If we are going to create these new standards, give industry a chance to meet them, and don't play games of delay by not working with the industry and then telling them why they failed to meet the standard, or changing the rules for automatic or manual-type systems. So I am really looking forward to the hearing. I think it is very, very important, and I have got questions, when we come to it, on--to address the jobs debate, which I think people find pretty problematic that these are now causing the loss of jobs in our country, and I yield back my time.</t>
   </si>
   <si>
@@ -70,42 +82,66 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. The Appliance and Equipment Efficiency Standards Program at the Department of Energy has been incredibly successful over the years in reducing energy consumption and lowering consumers' energy bills. The program has also been beneficial to manufacturers, making energy saving products more ubiquitous and leaving the playing field--leveling, I should say, the playing field nationally.    In fact, efficiency standards for consumer appliances and other products likely constitute the single most effective Federal effort to reduce energy consumption in the United States. According to the Energy Department, Americans save $63 billion on their utility bills last year because of these standards, and this has also resulted in avoiding 2.6 billion tons of carbon dioxide emissions, which would equal the annual level of emissions from roughly 543 million vehicles.    These figures are staggering and highlight the dual benefits of this important program. Consumers save money, and our environment is spared billions of tons of pollution every year. And all of this began with enactment of the Energy Policy and Conservation Act, EPCA, which was signed into law by Republican President Gerald Ford. I highlight ``Republican.'' This apparently started a trend because with the exception of an amendment to the statute directing DOE to establish efficiency standards for consumer products under the Carter administration, every major expansion of the appliance efficiency standards program has been signed into law by a Republican president.    So while some of our witnesses and my colleagues on the other side of the aisle may lament the long list of appliance standards proposed by the Obama administration, they should remember that, depending on your point of view, much of the credit or blame for the Obama standards can be traced back to two laws signed by President George W. Bush, the Energy Policy Act of 2005, and the Energy Independence and Security Act of 2007.    And while the 2007 Act was passed by a Democratic Congress, the Energy Policy Act of 2005 was borne out of a fully Republican Congress and authored by the former Republican chairman of this committee. I don't know why I have to keep saying ``fully Republican Congress.'' That is obviously not what I like, but the fact of the matter is that, that most of this legislation was done by Republican Congress and Presidents, and this underscores an important fact: For the past 40 years, energy efficiency has been a bipartisan issue where Republicans and Democrats have come together to reduce energy consumption and save consumers money.    Times have changed, obviously. Certainly, there are a few Republicans who still understand the importance of energy efficiency. Mr. McKinley has worked with Mr. Welch to demonstrate that bipartisanship in this area is still alive to some degree. Yet regrettably, that seems to be the only Republican support for major efficiency legislation in this Congress. Consider the recent House vote to go to conference on an energy package that would actually increase consumption by rolling back efficiency. Again, how times have changed.    Could the efficiency-standard-setting process use improvement? Of course it could, because there is always room for improvement, despite a revisionist view that disputes over efficiency standards are a new development, the fact is that the standard-setting process has always yielded some controversy from one industry participant or another. But these controversies were generally worked out, and the results were better products, more efficiency, and often useful changes to the standard setting process.    My concern is that improvement simply may not be possible in this current Congress. Last year, when we were working to forge a bipartisan compromise on furnace standards, the less and forthright positions taken by certain stakeholders made me question the sincerity of the so-called reform efforts. Perhaps it is just a matter of perspective. What some stakeholders view as minor tweaks, look an awful lot to me like a thorough gutting of the standards program.    So ultimately, I believe a serious, successful energy policy for our Nation must address demand, not just supply. Improving the use of the resources we have to get more from less is common sense, and that is why efficiency has traditionally been a concept that brought parties together. And Mr. Chairman, I just hope that one day we will see that again. It doesn't seem like today is the day. So thank you. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back, and that concludes the opening statements on our side.    So at this time, our first witness will be Ms. Sofie Miller, who is the senior policy analyst at the George Washington University Regulatory Studies Center. So, Ms. Miller, thanks for being with us, and you will be given 5 minutes, and just make sure the microphone is on and it is up close to you so we can hear every single word that you say. And you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Miller. Well, thank you very much, Chairman Whitfield and Ranking Member Rush and members of the subcommittee for inviting me to share my expertise today. I appreciate the subcommittee's interest in the Department of Energy's energy conservation program as well as opportunities for Congress to improve it.    I am the senior policy analyst at the George Washington University Regulatory Studies Center, where I analyze the effects of regulation on public welfare, including the effects of DOE's energy efficiency standards on consumers specifically.    Through my research, I have identified ways in which these standards can harm consumers rather than benefiting them by limiting the products available and removing from the market appliances that might best suit their needs.    DOE's energy efficiency standards regulate appliances used in most households such as dishwashers, air conditioners, and refrigerators, and as a result, they affect almost all U.S. consumers. These standards increase the prices of common appliances in exchange for reducing consumers' energy and water bills in the future.    While DOE does estimate that consumers receive large net benefits from this tradeoff, it does not take into account the diversity of Americans, or that U.S. households have very different needs and preferences when it comes to household appliances. As a result, one-size-fits-all energy efficiency standards can deprive consumers of the ability to make purchases that best suit their circumstances and constraints, and in such cases, these regulations are a cost to consumers rather than a benefit.    For example, efficient dishwashers or clothes dryers save consumers more money in the long term the more frequently they are used and tends not to benefit households with lower frequency of use, which includes couples or single residents, such as the elderly. In proposing energy efficiency standards for clothes washers, DOE calculated large benefits by estimating that a household operates its clothes washer 392 times per year or more than once a day on average.    And while this might be realistic for large families or households with small children, it does not represent every household. In fact, even after accounting for their lower energy bills, the standards ended up costing the nearly 70 percent of American households that use clothes washers less frequently than six times per week. And to illustrate from personal experience, a very efficient dishwasher made sense for my mother, who has nine children and used to run the dishwasher as much as four times per day, if you can imagine that. But my current household of two, we run the dishwasher twice a week, and in our case, it is not likely that a more efficient and more expensive appliance is going to be worth the investment.    In addition, efficiency standards are particularly costly for low-income households. Wealthier Americans can afford to wait years or even decades to recoup the higher cost of an efficient appliance while poor Americans with less certain streams of income have higher opportunity costs. DOE calculates high benefits by using a relatively low time value of money, which field studies find represents wealthier households.    Changing DOE's model to reflect the actual time value of money to low- and median-income households shows that they encourage large net costs as a result of efficiency standards. When a paycheck has to cover rent, food, and other necessities, a very efficient appliance may not be affordable even if it does reduce electric bills in the future. Many families simply cannot borrow at the 3 percent rates that DOE assumes.    But energy cost savings are not the only justification for these standards, as we have heard, as more efficient appliances can also reduce environmental emissions, but these environmental benefits are typically quite small relative to the cost of the standards. In fact, the costs outweigh these benefits by a factor of three to one. By looking at environmental benefits alone, DOE would not be able to justify the standards that it has set for most appliances.    In sum, the payoff from more efficient appliances will vary depending on a household's income, size, and other characteristics such as geographic location. It is perfectly rational for individual households to prefer to purchase different appliances, including those that do not meet DOE's standards. By taking away those choices and preventing households from buying the appliance that best suits their individual needs, DOE is imposing a cost on consumers and not a benefit. This is particularly true for low- and median-income Americans and the elderly who bear the highest costs of appliance efficiency standards.    Thank you all for your time. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Ms. Miller, very much for your opening statement. And our next witness this morning is Mr. Joseph McGuire, who is the president and CEO of the Association of Home Appliance Manufacturers. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>McGuire</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGuire. Mr. Chairman and Ranking Member Rush, and members of the subcommittee, thank you for the opportunity to testify this morning. AHAM's membership includes more than 150 companies throughout the world, and employs tens of thousands of people in the United States. Our members produce more than 95 percent of the household appliances shipped for sale in this country. I don't think there is any disagreement at this table that the appliance standards and Energy Star programs have been successful.    Energy efficiency gains across core major appliance categories are dramatic and undeniable. For example, the most commonly purchased modern refrigerator uses the same amount of electricity as a 50-watt light bulb. A new clothes washer uses 73 percent less energy than it did in 1990 and half the water.    I also want to make very clear that our industry has been a strong supporter of these programs and has been involved in numerous rulemakings and legislative solutions to strengthen and improve the programs. In 1987, I personally led the 200-plus organizations that initiated and supported the National Appliance Energy Conservation Act. We strongly support a system of Federal standards and State preemption, and we do not propose a rollback of any standards.    But while these programs are both successful, they are both in need of modernization to recognize the success achieved and to establish a framework for policies and programs focused on meaningful additional efficiency gains. Yes, there should still be Federal standards that guarantee energy savings nationwide, by absent technological breakthroughs, a process geared towards continually ratcheting up efficiency standards, particularly for products that have already been subject to multiple revisions, does not make sense for the environment, the consumer, or the economy. But this will not happen under the current standards construct.    Reform legislation is needed. H.R. 8 is a practical step along that path offering modest, sensible changes to EPCA that will essentially require DOE to follow the regulatory procedures it had agreed to with the very organizations that advocated for EPCA reform in 1987, but more is needed. Today, AHAM is calling on Congress to take further steps to modernize our national energy efficiency law by ending mandatory serial rulemaking and permitting amended standards only when justified by quantifiable metrics, including a list of covered products for which no further rulemaking is needed, absent technological game changers; requiring DOE to meaningfully consider cumulative regulatory burden on product manufacturers; mandating procedures regarding transparency and public engagement, no more black box analyses; applying the Administrative Procedure Act to the Energy Star program.    There have been more than 30 standards and amendments that apply to the AHAM products under the program, and there have also been numerous test procedure revisions accompanying these standards. The reality is, though, that for many product categories, the relentless march of sequential rulemakings is not justified. That is because opportunities for additional energy savings beyond those already achieved are severely diminished as products are nearing maximum efficiency under technology. Further standards are likely to increase cost to consumers and manufacturers beyond an acceptable level, and for some products, reduced energy use will likely result in degraded performance and functionality.    We saw this in the flawed proposed dishwasher rule last year whose consumer payback period exceeded the product's life and resulted in products that could not clean dishes. DOE, to its credit, retracted the proposal, but it shouldn't take a national uproar for this to happen. The rule never should have been proposed.    As for Energy Star, the program has drifted from its original mission of energy efficiency into other areas beyond its expertise and authority. This drift must be considered in concert with the reality that the success of the program has essentially made it mandatory in the marketplace.    Congress needs to bring this program under the much more traditional procedures and specific criteria of the Administrative Procedures Act, which applies to virtually every other program EPA administers. It is also important that Congress make clear that Energy Star is about energy efficiency only, not about EPA's ideas regarding quality, functionality, sustainability, other nonenergy factors.    Our ultimate objective is to improve the U.S. regulatory environment in measurable ways that foster fair, more predictable, more open, and more efficient regulatory landscape. As an industry, we will continue to live up to our responsibility to provide consumers with life-enhancing products that deliver superior performance and energy environmental benefits. Our industry is very competitive, which drives not only innovation, but also reduce product costs through hundreds of millions of dollars in productivity improvements. That is why home appliance prices don't keep up with the CPI, not because of appliance standards.    Productivity investments hide the fact that changing product design and materials to meet energy standards adds costs. Implying that the huge efforts in time and capital investments to achieve productivity somehow make energy efficiency free is a great misunderstanding.    Mr. Chairman and members of the subcommittee, in summary, we call on Congress to modernize EPCA so that it addresses current circumstances by recognizing the diminishing energy savings opportunities for many products, evaluating cumulative regulatory burden and the actual impact of past rules in improving transparency in stakeholder engagement. Thank you for the opportunity to testify. I will be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. McGuire. And our next witness is Ms. Elizabeth Noll, who is the legislative director for Energy and Transportation at the Natural Resources Defense Council. Ms. Noll, thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Noll</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Noll. Good morning. Mr. Chairman, members of the subcommittee, thank you for the opportunity to share the perspective of the Natural Resources Defense Council on national energy efficiency standards set by the Department of Energy for many household appliances and commercial products. This program sets dependable, minimum levels of energy efficiency that all Americans can count on to reduce their utility bills, the carbon pollution that harms human health while promoting innovation and new job opportunities. My name is Elizabeth Noll, and I am the legislative director for the Energy and Transportation Program at NRDC.    NRDC has long supported energy efficiency standards, and we are far from alone. We have successfully worked alongside many groups, including NEMA, AHRI, and AHAM here today, and was reiterated in a recent op ed we authored with the National Association of Manufacturers. And let's not forget, the initial law establishing standards was signed by President Ronald Reagan, then expanded and improved with broad bipartisan support in law signed by both Presidents George H.W. And W. Bush. And why is there such strong support for efficiency standards?    This program is wildly successful, delivering tremendous consumer and national benefits. It has broad and bipartisan support founded on a long history of collaboration and consensus building, and by all accounts, there is still huge potential for even more energy and financial savings now and in the future.    To my first point, by every single measure, the program provides huge benefits. In fact, national appliance standards are the second biggest energy saving policy in U.S. history, second only to vehicle fuel economy standards. Appliance standards are saving the typical U.S. household about $500 per year on their utility bills. Last year alone, American consumers saved $63 billion. And thanks to standards already on the books today, consumers and benefits will save almost $2 trillion on their energy bill due to improved appliance and equipment sold through 2035.    Because these standards are cutting American energy consumption, it also reduces the need to burn polluting fossil fuels to run those appliances and equipment. Last year alone, national appliance standards helped the U.S. avoid emissions of 300 million tons of carbon dioxide. That is equivalent to the annual pollution from about 63 million cars.    As I noted earlier, three Republican presidents have signed laws supporting energy efficiency standards, and for the first time since the early 1990s, the Department of Energy is up to date with its legal deadlines that Congress enacted. In the spirit of consensus building and collaboration, the agency has done more than ever to open up avenues to increase stakeholder participation and collaboration. Of the 42 standards finalized since 2009, almost a quarter stemmed from consensus agreements negotiated with industry support.    And those that aren't negotiated, go through a normal rulemaking process, which includes multiple opportunities for input from industry. As a result, the vast majority of American energy efficiency standards go into effect without controversy.    As noted in other testimony today, manufacturers much prefer a single national standard over a State-by-State patchwork of requirements. Consumer groups, State Governments, business groups, utilities, all have engaged constructively and support the program. One might ask, Are there more energy consumer and environmental savings to be achieved? Emphatically, yes. One example involves the biggest energy and pollution saver from a single standard in the agency's history which was completed in January for commercial rooftop air conditioners, heat pumps, and warm air furnaces, and it represents the third revision to this standard. This standard is expected to save 15 quadrillion BTUs of energy over a 30-year period, which is nearly equivalent to the amount of energy in all of the coal burned to generate electricity in the United States in 1 year.    A forthcoming report by the Appliance Standards Awareness Project and the American Council for an Energy-Efficient Economy finds that the savings potential for Federal standards that will be eligible for update within the next 8 years exceeds what has been accomplished over the last 8, and innovation by our leading manufacturers is likely to open up new opportunities for savings that we cannot even contemplate today.    Without standards, cost-effective energy efficiency opportunities will be lost leading to unnecessarily high energy bills, increased energy consumption, more harmful pollution, and uncertainty from manufacturers. There is no doubt that this program works and will continue to deliver huge consumer and environmental value now and into the future. Thank you for the opportunity to share my views, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Ms. Noll, for your statement.    At this time, I would like to introduce Mr. Kevin Cosgriff, who is the president and CEO of the National Electrical Manufacturers Association, and thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Cosgriff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cosgriff. Thank you, Mr. Chairman, Ranking Member Rush, and members of the subcommittee for having us today. I am the president and CEO of the National Electrical Manufacturers Association, some nearly 400 members that provide virtually everything in the electrical world, and I appreciate this opportunity to talk about EPCA with the subcommittee.    We have a central position in this dialogue given that 20 of the 63 covered products are made by NEMA members, and an additional 30 covered products contain components made by NEMA members.    I have three main points that I would like to make today. First, as has been stated, there are diminishing energy savings returns to multiple rulemakings on the same product. That is not saying that we don't believe in energy savings. We are just saying there is diminishing returns on multiple rulemakings that ought to be considered.    Future energy efficiency opportunities should include looking at energy use systems, not simply components or individual products. And lastly, serial regulation does, over time, limit consumer choice.    First, on diminishing returns. EPCA was written 40 years ago, and many of the covered products have since achieved then unimagined levels of efficiency. Several products have been through two or more different rulemakings, and the EPCA statute requires the DOE to determine whether higher standards are warranted on every single covered product at least every 6 years. This applies even to products that have already reached the stage of regulatory maturity, as it were, that is to say, the products for which cost-effective efficiency improvements have essentially reached their limits. Cost-effective energy improvements have reached their limits.    There are two components to this situation we believe warrant congressional attention. We should retire several and mature covered products, and by that, I mean retire at the current level of efficiency, not backslide, and that stakeholders, including Government, should be given sufficient time to analyze the impact of a previous regulation before a new rulemaking cycle kicks off. Rarely has a product entered the market before the next rule process kicks off. There has not been enough time to really analyze the information in the real world to see if it works.    My second point is that energy efficiency opportunities should begin to looking at energy use systems. EPCA was crafted for individual products. The challenge ahead, I think, is to build on this past industry success with a new, more holistic approach to these savings opportunities. Individual products are increasingly interconnected and operate as a system, rather than singularly. We suggest Congress consider this opportunity when discussing energy savings.    Think energy savings from a building versus energy savings from a lamp. Demands from--my third point is serial regulation impacts consumer choice. Demands from global competition, Government regulation, and all important consumer preference requires manufacturers to sprint to remain competitive. While our members are accustomed and good at running this race, and endless regulatory environment erects hurdles that they must repeatedly clear each and every time to remain viable. They are the definition of having skin in the game.    One tendency of EPCA, however, is that over time, it will trend towards eliminating certain products from the market. Under this type of regulatory scheme, there will be fewer and fewer choices offered to consumers. We assert that markets should drive and, in fact, are driving the energy-efficient economy. One choice that markets can do without, however, is availability of products entering the United States that do not comply with U.S. law and policy. This deprives consumers of energy-efficient benefits, and disadvantages law abiding manufacturers. This is an area where the Federal Government especially could be helpful with policing up these imports.    In conclusion, electrical manufacturers' contribution to the energy efficiency economy has been diligent, and I believe commendable. Throughout this effort, NEMA has made constructive proposals to Congress, to DOE, and working with other stakeholders to advance energy efficiency where we believe it was justified and where the savings were significant. We have resisted regulation for the sake of simply doing something more when the benefits are insignificant, Or the costs were just too high. The 40-year-old model of regulating energy use in single products has, in many cases, done its duty, but its diminishing returns are exacting an increasing cost for our industry and higher price for our consumers.    The legislative overhaul that builds on the success of the last 40 years, but allows us to all keep the energy efficiency economy moving forward is what we wish to support. We urge Congress to seize this unique opportunity. Thank you. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Cosgriff.    At this time, our next witness is Mr. Thomas Eckman, who is the director of the Power Division of the Northwest Power and Conservation Council. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Eckman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Eckman. Thank you, Mr. Chairman and Ranking Member Rush. My name is Tom Eckman. I am the Director of Power Planning for the Northwest Power and Conservation Council. I will start with a very quick thumbnail of who we are. Since there are no northwest delegates here, I thought you might--it might be important to figure out why I am here representing the northwest.    The Northwest Power and Conservation Council was established under a congressional authorization under the Northwest Power and Conservation Act of 1980, public law 96-501. We are an interstate compact authorized by you folks here in Congress to do power planning for the northwest. So we, for the States of Oregon, Washington, Idaho, and western Montana, we produce a 20-year power forecast of future needs and a resource plan to meet those needs for electricity, and our statutory requirement is that we are to treat energy efficiency as one of the resources we can rely on to meet those needs.    Over the past three decades, 3 \\1/2\\, 35 years, we produced seven different power plans. We are to update those plans every 5 years, so we started back in 1982 with the first plan, and called for cost-effective energy efficiency to be a major component of that planning process as directed by Congress.    Over that past 35 years, energy efficiency has been a very significant contributor to the northwest economy and to meeting our needs. In summary, since 1980, the northwest region has saved enough electricity through codes and standards, utility programs, to be equivalent of roughly six Seattles in annual electricity consumption, or more than one and one quarter times the actual consumption of the State of Oregon, so it is a significant contributor. It roughly represents our second largest resource in the region. It has met 55 percent of low growth since 1980, so we really believe in energy efficiency that is cost effective.    The reason I am here is to talk to you about the role that Federal standards have played in making that happen and what they look like going forward. Over the past 35 years, Federal standards have basically produced one-fifth of the total savings that we have been able to achieve. Energy code is about 20 percent, and the remaining through rate pair-funded utility programs. One-fifth of the savings turns out to be worth about $1 billion in annual savings out of the--on an annual basis, and saves about 5 million metric tons of carbon off of our system. And we have a very clean system because about half of our power comes from hydroelectricity. So that is a significant component of us. It is about 10 percent of our total carbon emissions on an annual basis.    So on a going-forward basis, we looked at the Federal standards that have been adopted between 2009 and 2014. Those standards alone will reduce our forecast low growth from 1.1 percent to .8 percent, about 30 percent reduction in low growth. Again, saving significant consumer cost for new generation and saving consumer pain and agony from carbon emissions. So we are here to support those standards because not only have they been a huge benefit to us, but we have been involved in the negotiations that led to not only the Federal standards, but many of the standards that have been adopted since 20--since 1987.    I am a member of the Appliance Standards Rulemaking Advisory Committee that was appointed by DOE to facilitate better communication between manufacturers and advocates for energy efficiency to begin to develop more transparent and open processes to engage in rulemaking. And that--since the advent of that committee, which was basically formed at the behest of the Department itself because it understood that it could do a better job of rulemaking in the negotiations, and it could, in a standard notice and comment process, it can't always do a better job, but in some instances, particularly Elizabeth noted the appliance rulemaking for air conditioners and package rooftop systems, those consensus agreements between manufacturers and advocates have produced better standards, more regulatory certainty on behalf of the manufacturers, and greater compromise and facility to implement standards on behalf of the manufacturers.    So I think those--that particular improvement was not envisioned in the original statute, but as a regulatory process that DOE implemented on a voluntary basis and has improved immeasurably the transparency of the standards development process on a going-forward basis, and I think that we can talk more about that in the time that you have questions for me. I will stop there. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thanks, Mr. Eckman.    And our next witness, and last witness, is Mr. Stephen Yurek, who is the president and CEO in the Air-Conditioning, Heating and Refrigeration Institute. So thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Yurek</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yurek. Thank you, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee for inviting me to testify on this important topic. I am Steve Yurek, and I am the president and CEO of the Air-Conditioning, Heating and Refrigeration Institute. AHRI has 315 member companies that manufacture more than 90 percent of the residential, commercial, and industry air conditioning, space heating, water heating, and commercial refrigeration equipment sold and installed in North America.    Our members employ over 100,000 people in manufacturing, and more than 1 million American jobs when you include those involved in distribution, installation, and maintenance of our equipment. I want to make it clear that our industry has a long record of leadership when it comes to innovation, energy efficiency, and environmental stewardship. In fact, the equipment our members produce is 50 percent more efficient than it was just 20 years ago. But even as we innovate and develop the next generation of highly efficient equipment, we always have in mind the needs of our customers who are, after all, the people who buy and use our equipment.    We have three main concerns with the current statutes that I would like to discuss today. First, the authority Congress set forth for setting efficiency standards, the Energy Policy Conservation Act, is 40 years old and has not been undated to reflect new technologies and economic realities.    Two, in addition to the impact in our industries, consumers are paying a heavy price, both in real monetary costs and in comfort and safety. When new equipment costs more than consumers can afford, they find alternatives, some of which compromise their comfort and safety while saving less energy, and in some cases, actually using more energy.    Finally, American jobs are being lost, in part, because of the promulgation of ever more stringent deficiency regulations, and the worse thing is, DOE admits that these regulations cost jobs.    While the Clinton administration issued six major efficiency rules during his 8 years in office, the current administration issued eight major efficiency rules in 2014 alone. There are real consequences from this rush to regulate. Yes, complying with these rules cost my member companies millions and millions of dollars, but what is far more important, it should be far more worry to Congress, is that American jobs are being lost, and consumers, who are already feeling financially squeezed, are being forced to pay more for products they rely on in their everyday lives from comfort cooling and heating, to refrigeration, to hot water.    EPCA requires that all efficiency standards meet the twin tests of technically feasible and economically justified, and yet, DOE has issued rules that use unrealistic assumptions in its analyses to justify higher efficiency levels. I will give you a couple of examples.    For commercial boilers, DOE estimates the new standard would save just eight-tenths of a percent more energy than the existing standard, but would cost manufacturers up to $24 million to comply. For residential boilers and commercial refrigeration equipment, DOE justified the economic impact of the higher efficiency levels by using the assumption that no matter how much the product increases in price, demand for that product would never decrease.    Every time DOE issues a new rule, it issues a press release estimating the rule's benefit in cost savings for consumers and energy savings for the Nation based on theoretical models. DOE has never looked back to see what the energy savings actually were, or if consumers actually ever benefited from spending more money, and the current law does not even require such a review.    Finally, DOE projects future job losses in several of its rulemakings for our products. For example, in two separate rulemakings for different types of commercial air-conditioning units, DOE noted small business manufacturers would need to redesign their entire private offering or leave the market. DOE acknowledged a potential scenario in which a rulemaking for commercial refrigeration equipment could cause all existing production to be moved outside of the United States, resulting in a loss of over 3,500 jobs.    Changes to EPCA should be implemented in phases with the collaboration of all stakeholders. I urge all members of the upcoming conference committee to ensure that the technical corrections in H.R. 8 remain part of the final energy bill. Broader EPCA reform should stress flexibility, enhance technical and economic justifications, and the process should be overhauled to maximize transparency and stakeholder engagement. Congress should require DOE to convene stakeholders to discuss and recommend a new regulatory framework.    AHRI is ready to work with Congress, DOE, and other stakeholders on ways we can, together, fix and update this 40-year-old law to create a new, more open process, conserve energy, help manufacturers remain competitive in the global marketplace, and benefit all consumers. I appreciate the chance to appear today, and I look forward to answering any questions you might have and to working with you as we move forward on this important issue.</t>
   </si>
   <si>
@@ -268,6 +304,12 @@
     <t>412302</t>
   </si>
   <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Olson [presiding]. The gentleman's time has expired. The Chair recognizes the ranking member of the full committee, Mr. Pallone from New Jersey for 5 minutes.</t>
   </si>
   <si>
@@ -337,6 +379,12 @@
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. I thank the assistant chair. Mr. Cosgriff, I believe that you stated that many of the imported products are not held to the same standards as American made products. Is that right?</t>
   </si>
   <si>
@@ -406,6 +454,12 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thanks, Mr. Chairman. And I would also like to echo I think this is a great panel today and really appreciate you all being here. I am kind of an expert, my wife and I in the last 6 weeks just bought a washer and dryer, and the refrigerator is next.    But in northwest Ohio we do make HVAC, we make dishwashers, we make dryers, we make washing machines, we also make waffle irons, we make large mixers and we also have a large freezer plant right in northwest central Ohio. So we have a lot of things going on, and it is very important to our economy.    But, Mr. McGuire, if I could start with you: You have been particularly critical of the proposed standards for dishwashers. Can you explain what is wrong with the standard in terms of substance of the proposed rule as well as the process by which it has come about?</t>
   </si>
   <si>
@@ -451,6 +505,12 @@
     <t>412239</t>
   </si>
   <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Welch. Thank you very much. This is a great panel, I appreciate it.    A couple of things, we don't have a bill yet, right? So this is kind of an abstract discussion. And I thought Mr. Shimkus kind of laid out the potential for cooperation here. I do like the notion of collaboration in the process, because you have got folks at DOE who are doing their best to implement efficiency standards, you have got real world folks that are the manufacturers that have to contend with the very practical issues of implementation.    Ms. Noll, you're OK with that, right?</t>
   </si>
   <si>
@@ -490,6 +550,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. And let me just build a little bit on some of the remarks that have been made earlier about credentials. Peter Welch and I have had a wonderful working relationship, we both chair the efficiency caucus, we put language into the current energy bill that we are waiting to see what is happen in the Senate. We have been to the White House for the energy efficiency bills. So this is something I think he and I grasp fairly well with this.    Back when I was in private practice in engineering we designed some of the first LEED certified schools and office buildings in West Virginia. I am working with Tonko over in energy efficiency with the turbines to create electricity to make that more efficient. So energy efficiency is one of the prime areas that I like to play with and can get involved in here.    But I get to a point, there are some vast differences and I want to play back on what my colleague and good friend Bobby Rush from Illinois was talking about, was the disparity of income when people were facing this, if you look at this, it poses a challenge for all of us. It really does for it.    If you look at Mississippi my colleague from Harper from Mississippi, their median family income $36,000 a year. In Mississippi. $36,000 a year, but in Maryland, it is over $70,000 per family income. So in those affluent States or neighborhoods, they make choices, they have choices. You will probably if we went through the motor vehicle licensing we would find they probably have more BMWs and Lexus cars there then we have in some other areas of the country or in neighborhoods.    So cars are going to be different because people have choices. We have housing, different pricing for housing because people have choices for that. We have health care. When you go to the exchanges under ObamaCare there are different exchanges so people have choices. But when it comes to their major consumer appliance, they don't.    For your air conditioning, your refrigerator, your range, your dishwasher, your furnace all of these now have been mandated that this is the only one that they have available to them. I am troubled with that, because of the diversity of income, their capability of doing it, and don't tell me it is going to save my $500 a year, because we understand the pay back is so much longer on all of these.    So I am wondering is there a suggestion you all could make that might make it more palatable for people to be able to have a choice so that they are not confronted with this hard decision? I know of families that are trying to fix anything, their equipment--to make it last as long as possible, because they know that they can't afford the cost of the new one. And so they are spending a lot of money in repairs because they don't have a choice. They know what the cost is. That air conditioning costs the same in Connecticut as it does in Mississippi, or that dishwasher.    So what would you suggest that we in Congress could do to maybe ameliorate some of these differences a little bit so that the poorer communities or States that have trouble, how can they afford to have this cost? Can some of you--OK, Mr. Yurek.</t>
   </si>
   <si>
@@ -505,6 +571,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chairman. Thank you to our witnesses.    Certainly we are citing a 40-year history here. And again to repeat what my colleague from Vermont indicated, we have to look at some of the trade situations too. Where offshoring of jobs might have helped some families retain those jobs and be able to afford these items. And this job loss thing I think is much more complex than just suggesting standards caused it.    Our energy efficiency standards have improved products that benefit all of our constituents. Many of these are not luxury goods but necessities found in nearly every home. We have heard support for national efficiency standards from manufacturers and consumers and we have heard from industries from States from environmental groups that there is consensus that this program has been a success.    I am certainly open to improving the program, but improvements cannot undermine the purpose of this program. And while we look for those improvements, we should not lose sight of the fact that this program is incredibly successful. While there have been a few contentious rules, it is my understanding that of the final rules issued since 2009, almost one-quarter were the result of negotiating consensus agreements and only five have been subject to litigation.    So to our witnesses, do you agree many of these rules have been consensus driven?</t>
   </si>
   <si>
@@ -541,6 +613,12 @@
     <t>412445</t>
   </si>
   <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman.    And Mr. McGuire could you recommend to me what type of hair dryer would be the best purchase for my dishwasher so I could dry my dishes whenever the cycle is through?</t>
   </si>
   <si>
@@ -583,6 +661,12 @@
     <t>412550</t>
   </si>
   <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman and thank the panel for being here today, a very informative discussion.    Mr. McGuire, which of your appliances have been regulated multiple times? I mean, do you believe we are reaching a point of diminishing marginal returns with this serial rulemaking?</t>
   </si>
   <si>
@@ -616,6 +700,12 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, and I, too, want to thank the panel for joining us today. Thank you all. I know this is--you have been here awhile already.    For Mr. McGuire, Mr. Cosgriff, and Mr. Yurek, how important is early stakeholder input in the rulemaking process? I mean, what are the additional challenges that you face when DOE issues a notice of proposed rulemaking without having consulted with you beforehand?    Mr. McGuire, let's start with you.</t>
   </si>
   <si>
@@ -659,6 +749,12 @@
   </si>
   <si>
     <t>412568</t>
+  </si>
+  <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, sir, and thank you for having this meeting. You know, I will be honest with you, there is a few meetings that we have in here that I have to really study hard on because I am not familiar with it. This is, as I would say, in my wheelhouse.    I understand this situation extremely well. And Ms. Noll, I am going to kind of just talk to you for probably the remainder of the time Because of a couple of things that you said, and I just kind of want to set the record straight. One, you said huge savings of these energy efficiency standards that DOE has put out, has put huge savings. That was your words, right? Based on what?</t>
@@ -1076,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,5237 +1202,6088 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
       <c r="H75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
       <c r="H77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
       <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
       <c r="H83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
       <c r="H87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>96</v>
+      </c>
       <c r="H88" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G90" t="s">
+        <v>96</v>
+      </c>
       <c r="H90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G92" t="s">
+        <v>96</v>
+      </c>
       <c r="H92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>96</v>
+      </c>
       <c r="H94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>83</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>96</v>
+      </c>
       <c r="H96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G97" t="s">
+        <v>121</v>
+      </c>
       <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G99" t="s">
+        <v>121</v>
+      </c>
       <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G101" t="s">
+        <v>121</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s">
+        <v>121</v>
+      </c>
       <c r="H103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s">
+        <v>121</v>
+      </c>
       <c r="H105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G107" t="s">
+        <v>121</v>
+      </c>
       <c r="H107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G109" t="s">
+        <v>121</v>
+      </c>
       <c r="H109" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>121</v>
+      </c>
       <c r="H111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G113" t="s">
+        <v>121</v>
+      </c>
       <c r="H113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G115" t="s">
+        <v>121</v>
+      </c>
       <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G117" t="s">
+        <v>121</v>
+      </c>
       <c r="H117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>83</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G118" t="s">
+        <v>96</v>
+      </c>
       <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G119" t="s">
+        <v>146</v>
+      </c>
       <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>129</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G121" t="s">
+        <v>146</v>
+      </c>
       <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>29</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G123" t="s">
+        <v>146</v>
+      </c>
       <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>129</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G125" t="s">
+        <v>146</v>
+      </c>
       <c r="H125" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G127" t="s">
+        <v>146</v>
+      </c>
       <c r="H127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>129</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G129" t="s">
+        <v>146</v>
+      </c>
       <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>41</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>129</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G131" t="s">
+        <v>146</v>
+      </c>
       <c r="H131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G132" t="s">
+        <v>96</v>
+      </c>
       <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G133" t="s">
+        <v>163</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>144</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G135" t="s">
+        <v>163</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>144</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G137" t="s">
+        <v>163</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G139" t="s">
+        <v>163</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>144</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G141" t="s">
+        <v>163</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G143" t="s">
+        <v>163</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>83</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G144" t="s">
+        <v>96</v>
+      </c>
       <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>157</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G145" t="s">
+        <v>178</v>
+      </c>
       <c r="H145" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>41</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>157</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="G147" t="s">
+        <v>178</v>
+      </c>
       <c r="H147" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G148" t="s">
+        <v>96</v>
+      </c>
       <c r="H148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>162</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G149" t="s">
+        <v>185</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>41</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>162</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G151" t="s">
+        <v>185</v>
+      </c>
       <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>38</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G153" t="s">
+        <v>185</v>
+      </c>
       <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>162</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G155" t="s">
+        <v>185</v>
+      </c>
       <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>162</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G157" t="s">
+        <v>185</v>
+      </c>
       <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>83</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G159" t="s">
+        <v>96</v>
+      </c>
       <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>174</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G160" t="s">
+        <v>199</v>
+      </c>
       <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>174</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G162" t="s">
+        <v>199</v>
+      </c>
       <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>35</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>174</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G164" t="s">
+        <v>199</v>
+      </c>
       <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>174</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G166" t="s">
+        <v>199</v>
+      </c>
       <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>35</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>174</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G168" t="s">
+        <v>199</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>174</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G169" t="s">
+        <v>199</v>
+      </c>
       <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>174</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G171" t="s">
+        <v>199</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>83</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G172" t="s">
+        <v>96</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G173" t="s">
+        <v>215</v>
+      </c>
       <c r="H173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>188</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G175" t="s">
+        <v>215</v>
+      </c>
       <c r="H175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G177" t="s">
+        <v>215</v>
+      </c>
       <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G179" t="s">
+        <v>215</v>
+      </c>
       <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>41</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>214</v>
+      </c>
+      <c r="G181" t="s">
+        <v>215</v>
+      </c>
       <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>83</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G182" t="s">
+        <v>96</v>
+      </c>
       <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>199</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G183" t="s">
+        <v>228</v>
+      </c>
       <c r="H183" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>199</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G185" t="s">
+        <v>228</v>
+      </c>
       <c r="H185" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>35</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>199</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G187" t="s">
+        <v>228</v>
+      </c>
       <c r="H187" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>41</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>199</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G189" t="s">
+        <v>228</v>
+      </c>
       <c r="H189" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>41</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>199</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G191" t="s">
+        <v>228</v>
+      </c>
       <c r="H191" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>199</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G193" t="s">
+        <v>228</v>
+      </c>
       <c r="H193" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>41</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>199</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G195" t="s">
+        <v>228</v>
+      </c>
       <c r="H195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>83</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G196" t="s">
+        <v>96</v>
+      </c>
       <c r="H196" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>214</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G197" t="s">
+        <v>245</v>
+      </c>
       <c r="H197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I197" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>32</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>214</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G199" t="s">
+        <v>245</v>
+      </c>
       <c r="H199" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I199" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>214</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G201" t="s">
+        <v>245</v>
+      </c>
       <c r="H201" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I201" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>32</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>214</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G203" t="s">
+        <v>245</v>
+      </c>
       <c r="H203" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I203" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>32</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>214</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G205" t="s">
+        <v>245</v>
+      </c>
       <c r="H205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I205" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>32</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>214</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G207" t="s">
+        <v>245</v>
+      </c>
       <c r="H207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I207" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>32</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>214</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G209" t="s">
+        <v>245</v>
+      </c>
       <c r="H209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I209" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>32</v>
+      </c>
+      <c r="H210" t="s"/>
+      <c r="I210" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>214</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G211" t="s">
+        <v>245</v>
+      </c>
       <c r="H211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I211" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>214</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G213" t="s">
+        <v>245</v>
+      </c>
       <c r="H213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I213" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G214" t="s">
+        <v>26</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>214</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G215" t="s">
+        <v>245</v>
+      </c>
       <c r="H215" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I215" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>214</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G216" t="s">
+        <v>245</v>
+      </c>
       <c r="H216" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I216" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>83</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G217" t="s">
+        <v>96</v>
+      </c>
       <c r="H217" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I217" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>214</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="G218" t="s">
+        <v>245</v>
+      </c>
       <c r="H218" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>246</v>
+      </c>
+      <c r="I218" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>83</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G219" t="s">
+        <v>96</v>
+      </c>
       <c r="H219" t="s">
-        <v>237</v>
+        <v>97</v>
+      </c>
+      <c r="I219" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21381.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21381.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Shimkus</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -302,6 +311,9 @@
   </si>
   <si>
     <t>412302</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Olson</t>
@@ -1172,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,7 +1192,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,6085 +1217,6500 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>35</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>41</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H90" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G92" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G94" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H94" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G97" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G99" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G101" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G103" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G105" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G107" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G109" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G111" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G113" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G115" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G117" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G118" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H118" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G119" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>32</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G123" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>29</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>32</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G125" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>29</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>32</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G127" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>32</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G129" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>41</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>44</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G131" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G132" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H132" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G133" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H133" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I133" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>32</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G137" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>32</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G139" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I139" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G141" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I141" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>35</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G143" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I143" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G144" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H144" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I144" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G145" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I145" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>41</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>44</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G147" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="H147" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I147" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="J147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G148" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H148" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I148" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G149" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>41</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>44</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G151" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="H151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G153" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G155" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I155" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>35</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>38</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G157" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>29</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>32</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G159" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H159" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I159" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G160" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H160" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I160" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J160" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
-        <v>29</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>32</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G162" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I162" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" t="s">
-        <v>35</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>38</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G164" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>35</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>38</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G166" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H166" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I166" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="s">
-        <v>35</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>38</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G168" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H168" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I168" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G169" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H169" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I169" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>38</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G171" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I171" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G172" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H172" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I172" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G173" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="H173" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I173" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G175" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="H175" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I175" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>29</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>32</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G177" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="H177" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I177" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>32</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G179" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="H179" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I179" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>41</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>44</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G181" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I181" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>220</v>
+      </c>
+      <c r="J181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G182" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H182" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I182" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G183" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I183" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>32</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G185" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H185" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I185" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
-        <v>35</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>38</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G187" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I187" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J187" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" t="s">
-        <v>41</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>44</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G189" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I189" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="s">
-        <v>41</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>44</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G191" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J191" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>41</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>44</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G193" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J193" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" t="s">
-        <v>41</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>44</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G195" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I195" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J195" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G196" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H196" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I196" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J196" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G197" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I197" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" t="s">
-        <v>32</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>35</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G199" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H199" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I199" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J199" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" t="s">
-        <v>32</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>35</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G201" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I201" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J201" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202" t="s">
-        <v>32</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>35</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G203" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H203" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I203" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J203" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" t="s">
-        <v>32</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>35</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G205" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H205" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I205" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J205" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="s">
-        <v>32</v>
-      </c>
-      <c r="H206" t="s"/>
-      <c r="I206" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
+      <c r="H206" t="s">
+        <v>35</v>
+      </c>
+      <c r="I206" t="s"/>
+      <c r="J206" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G207" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H207" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I207" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" t="s">
-        <v>32</v>
-      </c>
-      <c r="H208" t="s"/>
-      <c r="I208" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
+      <c r="H208" t="s">
+        <v>35</v>
+      </c>
+      <c r="I208" t="s"/>
+      <c r="J208" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G209" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I209" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J209" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" t="s">
-        <v>32</v>
-      </c>
-      <c r="H210" t="s"/>
-      <c r="I210" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
+        <v>35</v>
+      </c>
+      <c r="I210" t="s"/>
+      <c r="J210" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G211" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H211" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I211" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J211" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" t="s">
-        <v>26</v>
-      </c>
-      <c r="H212" t="s"/>
-      <c r="I212" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s"/>
+      <c r="H212" t="s">
+        <v>29</v>
+      </c>
+      <c r="I212" t="s"/>
+      <c r="J212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G213" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H213" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I213" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J213" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" t="s">
-        <v>26</v>
-      </c>
-      <c r="H214" t="s"/>
-      <c r="I214" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
+        <v>29</v>
+      </c>
+      <c r="I214" t="s"/>
+      <c r="J214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F215" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G215" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H215" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I215" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J215" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G216" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H216" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I216" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J216" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G217" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H217" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I217" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J217" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G218" t="s">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="H218" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I218" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J218" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F219" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G219" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H219" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I219" t="s">
-        <v>269</v>
+        <v>101</v>
+      </c>
+      <c r="J219" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
